--- a/ig/contenu_narratif_update2/all-profiles.xlsx
+++ b/ig/contenu_narratif_update2/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T15:28:47+00:00</t>
+    <t>2023-07-19T08:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif_update2/all-profiles.xlsx
+++ b/ig/contenu_narratif_update2/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T08:40:19+00:00</t>
+    <t>2023-07-19T09:42:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/contenu_narratif_update2/all-profiles.xlsx
+++ b/ig/contenu_narratif_update2/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T09:42:54+00:00</t>
+    <t>2023-07-19T09:59:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
